--- a/T3-Reports/T3_query_091120.xlsx
+++ b/T3-Reports/T3_query_091120.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeenatbaig/Documents/GitHub/order-book-project-team-3/T3-Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A20BD8D7-65A6-1349-B84B-35877E242F62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C67E64-2956-EB43-9A52-64B8C4008B5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" activeTab="1" xr2:uid="{DDA712E8-6EDA-4238-8DA3-86257BCBAB72}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>PROJECT NAME/TEAM:</t>
   </si>
@@ -124,6 +124,39 @@
   </si>
   <si>
     <t>ASAP</t>
+  </si>
+  <si>
+    <t>On the system requirement: What does release number stand for ?, What does Requirement Source stand for?</t>
+  </si>
+  <si>
+    <t>On the front end requirements. What does sales grid stand for?</t>
+  </si>
+  <si>
+    <t>Buchi</t>
+  </si>
+  <si>
+    <t>On the backend requirements: What is the purpose of using arrays. Is it to hold the data that is extracted from databases?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buchi </t>
+  </si>
+  <si>
+    <t>Instructors</t>
+  </si>
+  <si>
+    <t>In the system requirements, what does "requirement sourse SOW "  mean?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How should we be updating release number? </t>
+  </si>
+  <si>
+    <t>Anmol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instructers </t>
+  </si>
+  <si>
+    <t>ASAp</t>
   </si>
 </sst>
 </file>
@@ -853,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E078EC2-A1C0-4820-B2BA-09111DDDDDA4}">
   <dimension ref="A2:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -990,65 +1023,123 @@
       <c r="J9" s="17"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="1"/>
+    <row r="10" spans="1:11" ht="140" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C10" s="16"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="17"/>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="17">
+        <v>44085</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="17"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="1"/>
+    <row r="11" spans="1:11" ht="84" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="17">
+        <v>44085</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
       <c r="J11" s="17"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="1"/>
+    <row r="12" spans="1:11" ht="140" x14ac:dyDescent="0.2">
+      <c r="A12" s="15">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C12" s="16"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="17"/>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="17">
+        <v>44085</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="17"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="1"/>
+    <row r="13" spans="1:11" ht="84" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="C13" s="16"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="17"/>
+      <c r="D13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="17">
+        <v>44086</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="17"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="1"/>
+    <row r="14" spans="1:11" ht="70" x14ac:dyDescent="0.2">
+      <c r="A14" s="15">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C14" s="16"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="17">
+        <v>44086</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="G14" s="17"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
